--- a/Excel/A2-Excel.xlsx
+++ b/Excel/A2-Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\573\A2\a2-DataVis-5ways\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\573\A2\a2-DataVis-5ways\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBE6534-81C4-42D0-9EAE-21BE242B1705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2D9BB2-811D-441F-B649-E800D81589A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22236" windowHeight="13176" xr2:uid="{292158C1-A5CA-48E1-B843-B9B286BDB483}"/>
   </bookViews>
@@ -1687,6 +1687,1636 @@
       <a:round/>
     </a:ln>
     <a:effectLst/>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT w="0"/>
+    </a:sp3d>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Assignment-2-Excel</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>bmw</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF00FF">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte">
+              <a:bevelT w="127000"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45DB-45EC-B69C-7D617091496D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ford</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="dkEdge">
+              <a:bevelT w="127000"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>3449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4294</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4363</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4906</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4657</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3574</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3870</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2965</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2905</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>3449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4294</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4363</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4906</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4657</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3574</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3870</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2965</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2905</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45DB-45EC-B69C-7D617091496D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>honda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="127000"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$57:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Sheet1!$C$57:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-45DB-45EC-B69C-7D617091496D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>mercedes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte">
+              <a:bevelT w="127000"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$70:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Sheet1!$C$70:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-45DB-45EC-B69C-7D617091496D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>toyota</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="dkEdge">
+              <a:bevelT w="127000"/>
+              <a:bevelB w="127000"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$73:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1649</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$73:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Sheet1!$C$73:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1649</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-45DB-45EC-B69C-7D617091496D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="20"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="1957495679"/>
+        <c:axId val="1957496511"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="1957495679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5030"/>
+          <c:min val="1500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Weight</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1957496511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1957496511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="47"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MPG</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1957495679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:softEdge rad="0"/>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT w="0"/>
+    </a:sp3d>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -1707,6 +3337,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2281,6 +3951,541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2314,6 +4519,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>570828</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>74857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3DBD6F-9DF6-4889-8D4B-CD7142D66296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2621,8 +4864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDE5B61-B851-40D0-A157-D7ED27208D29}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
